--- a/WS2812Clock/LEDCode.xlsx
+++ b/WS2812Clock/LEDCode.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="840" windowWidth="14400" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="6090" yWindow="840" windowWidth="14400" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="LED Brightness" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="EB_Mastertemplate_Confidentiality_Class">#REF!</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Second</t>
   </si>
@@ -35,12 +34,6 @@
   </si>
   <si>
     <t>Place</t>
-  </si>
-  <si>
-    <t>Center LED</t>
-  </si>
-  <si>
-    <t>Right LED</t>
   </si>
   <si>
     <t>LED 0</t>
@@ -635,14 +628,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -735,13 +721,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="EB Table Style" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1039,636 +1025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B3" si="0">24/60</f>
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C3" si="1">A2*B2</f>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="D2">
-        <f>FLOOR(C2,1)</f>
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <f>1-C2+D2</f>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F4" si="2">1-E2</f>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="D3">
-        <f>FLOOR(C3,1)</f>
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <f>1-C3+D3</f>
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <f>24/60</f>
-        <v>0.4</v>
-      </c>
-      <c r="C4">
-        <f>A4*B4</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>FLOOR(C4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>1-C4+D4</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>COLUMN(I4)</f>
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <f>COLUMN(J4)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>24/60</f>
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <f>FLOOR(C5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>1-C5+D5</f>
-        <v>0.6</v>
-      </c>
-      <c r="F5">
-        <f>1-E5</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:B24" si="3">24/60</f>
-        <v>0.4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C24" si="4">A6*B6</f>
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D24" si="5">FLOOR(C6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>1-C6+D6</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F24" si="6">1-E6</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f>1-C7+D7</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f>1-C8+D8</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <f>1-C9+D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f>1-C10+D10</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f>1-C11+D11</f>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f>1-C12+D12</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f>1-C13+D13</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f>1-C14+D14</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <f>1-C15+D15</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f>1-C16+D16</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>5.2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <f>1-C17+D17</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <f>1-C18+D18</f>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <f>1-C19+D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>6.4</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <f>1-C20+D20</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="4"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <f>1-C21+D21</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
-        <v>7.2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <f>1-C22+D22</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="4"/>
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <f>1-C23+D23</f>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <f>1-C24+D24</f>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1682,40 +1047,40 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>58</v>
       </c>
@@ -1732,51 +1097,55 @@
         <v>23</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:O17" si="2">IF(COLUMN(E2)-COLUMN($F2)=$D2,1-$C2+$D2,IF(COLUMN(E2)-COLUMN($F2)=$D2+1,1-(1-$C2+$D2),""))</f>
+        <f t="shared" ref="E2:E28" si="2">IF(COLUMN(E2)-COLUMN($F2)=$D2,255*(1-$C2+$D2),IF(COLUMN(E2)-COLUMN($F2)=$D2+1,255-D2,""))</f>
         <v/>
       </c>
       <c r="F2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E2:O17" si="3">IF(COLUMN(F2)-COLUMN($F2)=$D2,255*(1-$C2+$D2),IF(COLUMN(F2)-COLUMN($F2)=$D2+1,255*(1-(1-$C2+$D2)),""))</f>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P2">
+        <f>(1-MOD(A2,5)*0.4)*255+MOD(D2,2)*255</f>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>59</v>
       </c>
@@ -1797,47 +1166,51 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P3">
+        <f>(1-MOD(A3,5)*0.4)*255+MOD(D3,2)*255</f>
+        <v>101.99999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1858,47 +1231,51 @@
         <v/>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(COLUMN(F4)-COLUMN($F4)=$D4,255*(1-$C4+$D4),IF(COLUMN(F4)-COLUMN($F4)=$D4+1,255-E4,""))</f>
+        <v>255</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f>IF(COLUMN(G4)-COLUMN($F4)=$D4,255*(1-$C4+$D4),IF(COLUMN(G4)-COLUMN($F4)=$D4+1,255-F4,""))</f>
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>(1-MOD(A4,5)*0.4)*255+MOD(D4,2)*255</f>
+        <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1919,60 +1296,64 @@
         <v/>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f>IF(COLUMN(F5)-COLUMN($F5)=$D5,255*(1-MOD(A5,4)*0.4),IF(COLUMN(F5)-COLUMN($F5)=$D5+1,255*(1-(1-$C5+$D5)),""))</f>
+        <v>153</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f>IF(COLUMN(G5)-COLUMN($F5)=$D5,255*(1-$C5+$D5),IF(COLUMN(G5)-COLUMN($F5)=$D5+1,255-F5,""))</f>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P28" si="4">(1-MOD(A5,5)*0.4)*255+MOD(D5,2)*255</f>
+        <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B28" si="3">24/60</f>
+        <f t="shared" ref="B6:B28" si="5">24/60</f>
         <v>0.4</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C24" si="4">A6*B6</f>
+        <f t="shared" ref="C6:C24" si="6">A6*B6</f>
         <v>0.8</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D28" si="5">FLOOR(C6,1)</f>
+        <f t="shared" ref="D6:D28" si="7">FLOOR(C6,1)</f>
         <v>0</v>
       </c>
       <c r="E6" t="str">
@@ -1980,60 +1361,64 @@
         <v/>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999996</v>
+        <f>IF(COLUMN(F6)-COLUMN($F6)=$D6,255*(1-MOD(A6,4)*0.4),IF(COLUMN(F6)-COLUMN($F6)=$D6+1,255*(1-(1-$C6+$D6)),""))</f>
+        <v>50.999999999999986</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f>IF(COLUMN(G6)-COLUMN($F6)=$D6,255*(1-$C6+$D6),IF(COLUMN(G6)-COLUMN($F6)=$D6+1,255-F6,""))</f>
+        <v>204</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>50.999999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E7" t="str">
@@ -2041,1089 +1426,1161 @@
         <v/>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999982</v>
+        <f>IF(COLUMN(G7)-COLUMN($F7)=$D7,255*(1-$C7+$D7),IF(COLUMN(G7)-COLUMN($F7)=$D7+1,255-F7,""))</f>
+        <v>203.99999999999994</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000018</v>
+        <f>IF(COLUMN(H7)-COLUMN($F7)=$D7,255*(1-$C7+$D7),IF(COLUMN(H7)-COLUMN($F7)=$D7+1,255-G7,""))</f>
+        <v>51.000000000000057</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>IF(COLUMN(G8)-COLUMN($F8)=$D8,255*(1-$C8+$D8),IF(COLUMN(G8)-COLUMN($F8)=$D8+1,255-F8,""))</f>
+        <v>101.99999999999997</v>
+      </c>
+      <c r="H8">
+        <f>IF(COLUMN(H8)-COLUMN($F8)=$D8,255*(1-$C8+$D8),IF(COLUMN(H8)-COLUMN($F8)=$D8+1,255-G8,""))</f>
+        <v>153.00000000000003</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ref="E8:N23" si="6">IF(COLUMN(E8)-COLUMN($F8)=$D8,1-$C8+$D8,IF(COLUMN(E8)-COLUMN($F8)=$D8+1,1-(1-$C8+$D8),""))</f>
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>101.99999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C10">
+        <f t="shared" si="6"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>152.99999999999991</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>102.00000000000009</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C11">
+        <f t="shared" si="6"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>50.999999999999929</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>204.00000000000006</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>50.999999999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C12">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>203.99999999999994</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>51.000000000000043</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C13">
+        <f t="shared" si="6"/>
+        <v>3.6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>101.99999999999997</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>153.00000000000003</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>101.99999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C15">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>152.99999999999991</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>102.00000000000009</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C16">
+        <f t="shared" si="6"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>50.999999999999815</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>204.00000000000017</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>50.999999999999986</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C17">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>203.99999999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>51.000000000000043</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P17">
         <f t="shared" si="4"/>
-        <v>5.2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K17">
-        <f t="shared" si="6"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C18">
+        <f t="shared" si="6"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="E18:O28" si="8">IF(COLUMN(F18)-COLUMN($F18)=$D18,255*(1-$C18+$D18),IF(COLUMN(F18)-COLUMN($F18)=$D18+1,255*(1-(1-$C18+$D18)),""))</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>101.99999999999986</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>153.00000000000014</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P18">
         <f t="shared" si="4"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K18">
-        <f t="shared" si="6"/>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000053</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" ref="O18:O28" si="7">IF(COLUMN(O18)-COLUMN($F18)=$D18,1-$C18+$D18,IF(COLUMN(O18)-COLUMN($F18)=$D18+1,1-(1-$C18+$D18),""))</f>
-        <v/>
+        <v>101.99999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C19">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P19">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C20">
+        <f t="shared" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>152.99999999999991</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>102.00000000000009</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P20">
         <f t="shared" si="4"/>
-        <v>6.4</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L20">
-        <f t="shared" si="6"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C21">
+        <f t="shared" si="6"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>50.999999999999815</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>204.00000000000017</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P21">
         <f t="shared" si="4"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L21">
-        <f t="shared" si="6"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>50.999999999999986</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C22">
+        <f t="shared" si="6"/>
+        <v>7.2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>203.99999999999994</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>51.000000000000043</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P22">
         <f t="shared" si="4"/>
-        <v>7.2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C23">
+        <f t="shared" si="6"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>101.99999999999986</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>153.00000000000014</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P23">
         <f t="shared" si="4"/>
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="6"/>
-        <v>0.60000000000000053</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <v>101.99999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C24">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" ref="E24:N28" si="8">IF(COLUMN(E24)-COLUMN($F24)=$D24,1-$C24+$D24,IF(COLUMN(E24)-COLUMN($F24)=$D24+1,1-(1-$C24+$D24),""))</f>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C25">
@@ -3131,11 +2588,11 @@
         <v>8.4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F25" t="str">
@@ -3172,19 +2629,23 @@
       </c>
       <c r="N25">
         <f t="shared" si="8"/>
-        <v>0.59999999999999964</v>
+        <v>152.99999999999991</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="8"/>
+        <v>102.00000000000009</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C26">
@@ -3192,11 +2653,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F26" t="str">
@@ -3233,19 +2694,23 @@
       </c>
       <c r="N26">
         <f t="shared" si="8"/>
-        <v>0.19999999999999929</v>
+        <v>50.999999999999815</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" si="8"/>
+        <v>204.00000000000017</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>50.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C27">
@@ -3253,11 +2718,11 @@
         <v>9.2000000000000011</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F27" t="str">
@@ -3297,16 +2762,20 @@
         <v/>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
-        <v>0.79999999999999893</v>
+        <f t="shared" si="8"/>
+        <v>203.99999999999972</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>203.99999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="C28">
@@ -3314,11 +2783,11 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F28" t="str">
@@ -3358,8 +2827,12 @@
         <v/>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
-        <v>0.39999999999999858</v>
+        <f t="shared" si="8"/>
+        <v>101.99999999999963</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>101.99999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3369,6 +2842,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Owner xmlns="A10F38F2-18C0-4E21-A2EA-1C90770A134B">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Status xmlns="A10F38F2-18C0-4E21-A2EA-1C90770A134B">Draft</Status>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2380FA1C018214EA2EA1C90770A134B" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7b0cc6a8f514e240b0a1036bb9150be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="A10F38F2-18C0-4E21-A2EA-1C90770A134B" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2365d5482ecf72e43278842ea598d7e9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3757,27 +3251,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Owner xmlns="A10F38F2-18C0-4E21-A2EA-1C90770A134B">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Status xmlns="A10F38F2-18C0-4E21-A2EA-1C90770A134B">Draft</Status>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3788,6 +3261,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B16129E-EE2B-4454-BCFC-F998B13CE641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="A10F38F2-18C0-4E21-A2EA-1C90770A134B"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B318719C-8060-4F6E-8427-90FC93B05F00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3805,22 +3294,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B16129E-EE2B-4454-BCFC-F998B13CE641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="A10F38F2-18C0-4E21-A2EA-1C90770A134B"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE47182-C9A9-4D8B-B695-3CF39A205825}">
   <ds:schemaRefs>
